--- a/Luban/Config/Datas/EquipmentBase.xlsx
+++ b/Luban/Config/Datas/EquipmentBase.xlsx
@@ -1,22 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184F0F13-0D9D-4568-B23A-C6987BD8E030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2820" yWindow="2820" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0:不是百分比
+1:是百分比</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,8 +97,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,14 +146,148 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +306,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -163,24 +504,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -190,19 +767,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -460,27 +1079,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
+    <col min="4" max="4" width="36.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="18.45" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -515,7 +1134,7 @@
       <c r="X1"/>
       <c r="Y1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="18.45" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -544,7 +1163,7 @@
       <c r="X2"/>
       <c r="Y2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="18.45" customHeight="1">
+    <row r="3" s="2" customFormat="1" ht="18.45" customHeight="1" spans="1:25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -579,7 +1198,7 @@
       <c r="X3"/>
       <c r="Y3"/>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -614,7 +1233,7 @@
       <c r="X4"/>
       <c r="Y4"/>
     </row>
-    <row r="5" spans="1:25" ht="18.45" customHeight="1">
+    <row r="5" ht="18.45" customHeight="1" spans="1:4">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>10001</v>
@@ -626,7 +1245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="18.45" customHeight="1">
+    <row r="6" ht="18.45" customHeight="1" spans="1:4">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>10002</v>
@@ -638,43 +1257,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="3:4">
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="3:4">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="3:4">
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="3:4">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="3:4">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="3:4">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="3:4">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="3:4">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="3:4">
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="3:4">
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
@@ -1559,8 +2178,9 @@
       <c r="D236" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/EquipmentBase.xlsx
+++ b/Luban/Config/Datas/EquipmentBase.xlsx
@@ -19,7 +19,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,12 +47,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>##var</t>
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>SlotPos</t>
   </si>
   <si>
     <t>equipType</t>
@@ -77,6 +80,9 @@
   </si>
   <si>
     <t>这是id</t>
+  </si>
+  <si>
+    <t>装备位置</t>
   </si>
   <si>
     <t>装备类型</t>
@@ -1085,21 +1091,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y236"/>
+  <dimension ref="A1:Z236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
-    <col min="2" max="2" width="8.33333333333333" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="36.2166666666667" customWidth="1"/>
+    <col min="2" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="36.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1112,7 +1118,9 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="F1"/>
       <c r="G1"/>
       <c r="H1"/>
@@ -1133,15 +1141,16 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:25">
+      <c r="Z1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2"/>
+      <c r="E2" s="3"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -1162,13 +1171,14 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="18.45" customHeight="1" spans="1:25">
+      <c r="Z2"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1176,7 +1186,9 @@
       <c r="D3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
@@ -1197,21 +1209,24 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:25">
+      <c r="Z3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4"/>
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
@@ -1232,950 +1247,957 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
-    </row>
-    <row r="5" ht="18.45" customHeight="1" spans="1:4">
+      <c r="Z4"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>10001</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
+      <c r="C5" s="5">
+        <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="18.45" customHeight="1" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="18.45" customHeight="1" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>10002</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
+      <c r="C6" s="5">
+        <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="6"/>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
       <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="4:5">
       <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="4:5">
       <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="4:5">
       <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="4:5">
       <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="4:5">
       <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="4:5">
       <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="3:4">
-      <c r="C14" s="6"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" spans="4:5">
       <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="4:5">
       <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="4:5">
       <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="4:5">
       <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" s="6"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="4:5">
       <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="4:5">
       <c r="D19" s="6"/>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="4:5">
       <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="4:5">
       <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="4:5">
       <c r="D22" s="6"/>
-    </row>
-    <row r="23" spans="3:4">
-      <c r="C23" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="4:5">
       <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="4:5">
       <c r="D24" s="6"/>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="4:5">
       <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="4:5">
       <c r="D26" s="6"/>
-    </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" spans="4:5">
       <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="4:5">
       <c r="D28" s="6"/>
-    </row>
-    <row r="29" spans="3:4">
-      <c r="C29" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="4:5">
       <c r="D29" s="6"/>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="C30" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="4:5">
       <c r="D30" s="6"/>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="C31" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="4:5">
       <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="3:4">
-      <c r="C32" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="4:5">
       <c r="D32" s="6"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="4:5">
       <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="4:5">
       <c r="D34" s="6"/>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="4:5">
       <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="4:5">
       <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="4:5">
       <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="4:5">
       <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="4:5">
       <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="4:5">
       <c r="D40" s="6"/>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" s="6"/>
+      <c r="E40" s="6"/>
+    </row>
+    <row r="41" spans="4:5">
       <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="4:5">
       <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" s="6"/>
+      <c r="E42" s="6"/>
+    </row>
+    <row r="43" spans="4:5">
       <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="4:5">
       <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="6"/>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="4:5">
       <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" s="6"/>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" spans="4:5">
       <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" s="6"/>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" spans="4:5">
       <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="C48" s="6"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" spans="4:5">
       <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="6"/>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" spans="4:5">
       <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="6"/>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" spans="4:5">
       <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="4:5">
       <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="3:4">
-      <c r="C52" s="6"/>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" spans="4:5">
       <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="6"/>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" spans="4:5">
       <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="6"/>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" spans="4:5">
       <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="6"/>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="4:5">
       <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="C56" s="6"/>
+      <c r="E55" s="6"/>
+    </row>
+    <row r="56" spans="4:5">
       <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="3:4">
-      <c r="C57" s="6"/>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="4:5">
       <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="3:4">
-      <c r="C58" s="6"/>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="4:5">
       <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="6"/>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" spans="4:5">
       <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="C60" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="4:5">
       <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="C61" s="6"/>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="4:5">
       <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="C62" s="6"/>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="4:5">
       <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="C63" s="6"/>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" spans="4:5">
       <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="C64" s="6"/>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" spans="4:5">
       <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="3:4">
-      <c r="C65" s="6"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" spans="4:5">
       <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="3:4">
-      <c r="C66" s="6"/>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" spans="4:5">
       <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="3:4">
-      <c r="C67" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="4:5">
       <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="3:4">
-      <c r="C68" s="6"/>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" spans="4:5">
       <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="3:4">
-      <c r="C69" s="6"/>
+      <c r="E68" s="6"/>
+    </row>
+    <row r="69" spans="4:5">
       <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="3:4">
-      <c r="C70" s="6"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="4:5">
       <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="3:4">
-      <c r="C71" s="6"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="4:5">
       <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="3:4">
-      <c r="C72" s="6"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="4:5">
       <c r="D72" s="6"/>
-    </row>
-    <row r="73" spans="3:4">
-      <c r="C73" s="6"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="4:5">
       <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="3:4">
-      <c r="C74" s="6"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="4:5">
       <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="3:4">
-      <c r="C75" s="6"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" spans="4:5">
       <c r="D75" s="6"/>
-    </row>
-    <row r="76" spans="3:4">
-      <c r="C76" s="6"/>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" spans="4:5">
       <c r="D76" s="6"/>
-    </row>
-    <row r="77" spans="3:4">
-      <c r="C77" s="6"/>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" spans="4:5">
       <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="3:4">
-      <c r="C78" s="6"/>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" spans="4:5">
       <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="3:4">
-      <c r="C79" s="6"/>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" spans="4:5">
       <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" s="6"/>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" spans="4:5">
       <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="6"/>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" spans="4:5">
       <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="4:5">
       <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="4:5">
       <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="3:4">
-      <c r="C84" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="4:5">
       <c r="D84" s="6"/>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="4:5">
       <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" s="6"/>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" spans="4:5">
       <c r="D86" s="6"/>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="C87" s="6"/>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" spans="4:5">
       <c r="D87" s="6"/>
-    </row>
-    <row r="88" spans="3:4">
-      <c r="C88" s="6"/>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" spans="4:5">
       <c r="D88" s="6"/>
-    </row>
-    <row r="89" spans="3:4">
-      <c r="C89" s="6"/>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" spans="4:5">
       <c r="D89" s="6"/>
-    </row>
-    <row r="90" spans="3:4">
-      <c r="C90" s="6"/>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" spans="4:5">
       <c r="D90" s="6"/>
-    </row>
-    <row r="91" spans="3:4">
-      <c r="C91" s="6"/>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" spans="4:5">
       <c r="D91" s="6"/>
-    </row>
-    <row r="92" spans="3:4">
-      <c r="C92" s="6"/>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="4:5">
       <c r="D92" s="6"/>
-    </row>
-    <row r="93" spans="3:4">
-      <c r="C93" s="6"/>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" spans="4:5">
       <c r="D93" s="6"/>
-    </row>
-    <row r="94" spans="3:4">
-      <c r="C94" s="6"/>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" spans="4:5">
       <c r="D94" s="6"/>
-    </row>
-    <row r="95" spans="3:4">
-      <c r="C95" s="6"/>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" spans="4:5">
       <c r="D95" s="6"/>
-    </row>
-    <row r="96" spans="3:4">
-      <c r="C96" s="6"/>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" spans="4:5">
       <c r="D96" s="6"/>
-    </row>
-    <row r="97" spans="3:4">
-      <c r="C97" s="6"/>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" spans="4:5">
       <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="3:4">
-      <c r="C98" s="6"/>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" spans="4:5">
       <c r="D98" s="6"/>
-    </row>
-    <row r="99" spans="3:4">
-      <c r="C99" s="6"/>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" spans="4:5">
       <c r="D99" s="6"/>
-    </row>
-    <row r="100" spans="3:4">
-      <c r="C100" s="6"/>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" spans="4:5">
       <c r="D100" s="6"/>
-    </row>
-    <row r="101" spans="3:4">
-      <c r="C101" s="6"/>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" spans="4:5">
       <c r="D101" s="6"/>
-    </row>
-    <row r="102" spans="3:4">
-      <c r="C102" s="6"/>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" spans="4:5">
       <c r="D102" s="6"/>
-    </row>
-    <row r="103" spans="3:4">
-      <c r="C103" s="6"/>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" spans="4:5">
       <c r="D103" s="6"/>
-    </row>
-    <row r="104" spans="3:4">
-      <c r="C104" s="6"/>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" spans="4:5">
       <c r="D104" s="6"/>
-    </row>
-    <row r="105" spans="3:4">
-      <c r="C105" s="6"/>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" spans="4:5">
       <c r="D105" s="6"/>
-    </row>
-    <row r="106" spans="3:4">
-      <c r="C106" s="6"/>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" spans="4:5">
       <c r="D106" s="6"/>
-    </row>
-    <row r="107" spans="3:4">
-      <c r="C107" s="6"/>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" spans="4:5">
       <c r="D107" s="6"/>
-    </row>
-    <row r="108" spans="3:4">
-      <c r="C108" s="6"/>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" spans="4:5">
       <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="3:4">
-      <c r="C109" s="6"/>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" spans="4:5">
       <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="3:4">
-      <c r="C110" s="6"/>
+      <c r="E109" s="6"/>
+    </row>
+    <row r="110" spans="4:5">
       <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="3:4">
-      <c r="C111" s="6"/>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" spans="4:5">
       <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="3:4">
-      <c r="C112" s="6"/>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" spans="4:5">
       <c r="D112" s="6"/>
-    </row>
-    <row r="113" spans="3:4">
-      <c r="C113" s="6"/>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" spans="4:5">
       <c r="D113" s="6"/>
-    </row>
-    <row r="114" spans="3:4">
-      <c r="C114" s="6"/>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" spans="4:5">
       <c r="D114" s="6"/>
-    </row>
-    <row r="115" spans="3:4">
-      <c r="C115" s="6"/>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" spans="4:5">
       <c r="D115" s="6"/>
-    </row>
-    <row r="116" spans="3:4">
-      <c r="C116" s="6"/>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" spans="4:5">
       <c r="D116" s="6"/>
-    </row>
-    <row r="117" spans="3:4">
-      <c r="C117" s="6"/>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" spans="4:5">
       <c r="D117" s="6"/>
-    </row>
-    <row r="118" spans="3:4">
-      <c r="C118" s="6"/>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" spans="4:5">
       <c r="D118" s="6"/>
-    </row>
-    <row r="119" spans="3:4">
-      <c r="C119" s="6"/>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" spans="4:5">
       <c r="D119" s="6"/>
-    </row>
-    <row r="120" spans="3:4">
-      <c r="C120" s="6"/>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" spans="4:5">
       <c r="D120" s="6"/>
-    </row>
-    <row r="121" spans="3:4">
-      <c r="C121" s="6"/>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" spans="4:5">
       <c r="D121" s="6"/>
-    </row>
-    <row r="122" spans="3:4">
-      <c r="C122" s="6"/>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" spans="4:5">
       <c r="D122" s="6"/>
-    </row>
-    <row r="123" spans="3:4">
-      <c r="C123" s="6"/>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" spans="4:5">
       <c r="D123" s="6"/>
-    </row>
-    <row r="124" spans="3:4">
-      <c r="C124" s="6"/>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" spans="4:5">
       <c r="D124" s="6"/>
-    </row>
-    <row r="125" spans="3:4">
-      <c r="C125" s="6"/>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" spans="4:5">
       <c r="D125" s="6"/>
-    </row>
-    <row r="126" spans="3:4">
-      <c r="C126" s="6"/>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" spans="4:5">
       <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="3:4">
-      <c r="C127" s="6"/>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" spans="4:5">
       <c r="D127" s="6"/>
-    </row>
-    <row r="128" spans="3:4">
-      <c r="C128" s="6"/>
+      <c r="E127" s="6"/>
+    </row>
+    <row r="128" spans="4:5">
       <c r="D128" s="6"/>
-    </row>
-    <row r="129" spans="3:4">
-      <c r="C129" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="4:5">
       <c r="D129" s="6"/>
-    </row>
-    <row r="130" spans="3:4">
-      <c r="C130" s="6"/>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" spans="4:5">
       <c r="D130" s="6"/>
-    </row>
-    <row r="131" spans="3:4">
-      <c r="C131" s="6"/>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" spans="4:5">
       <c r="D131" s="6"/>
-    </row>
-    <row r="132" spans="3:4">
-      <c r="C132" s="6"/>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" spans="4:5">
       <c r="D132" s="6"/>
-    </row>
-    <row r="133" spans="3:4">
-      <c r="C133" s="6"/>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" spans="4:5">
       <c r="D133" s="6"/>
-    </row>
-    <row r="134" spans="3:4">
-      <c r="C134" s="6"/>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" spans="4:5">
       <c r="D134" s="6"/>
-    </row>
-    <row r="135" spans="3:4">
-      <c r="C135" s="6"/>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" spans="4:5">
       <c r="D135" s="6"/>
-    </row>
-    <row r="136" spans="3:4">
-      <c r="C136" s="6"/>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" spans="4:5">
       <c r="D136" s="6"/>
-    </row>
-    <row r="137" spans="3:4">
-      <c r="C137" s="6"/>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" spans="4:5">
       <c r="D137" s="6"/>
-    </row>
-    <row r="138" spans="3:4">
-      <c r="C138" s="6"/>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" spans="4:5">
       <c r="D138" s="6"/>
-    </row>
-    <row r="139" spans="3:4">
-      <c r="C139" s="6"/>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" spans="4:5">
       <c r="D139" s="6"/>
-    </row>
-    <row r="140" spans="3:4">
-      <c r="C140" s="6"/>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" spans="4:5">
       <c r="D140" s="6"/>
-    </row>
-    <row r="141" spans="3:4">
-      <c r="C141" s="6"/>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" spans="4:5">
       <c r="D141" s="6"/>
-    </row>
-    <row r="142" spans="3:4">
-      <c r="C142" s="6"/>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" spans="4:5">
       <c r="D142" s="6"/>
-    </row>
-    <row r="143" spans="3:4">
-      <c r="C143" s="6"/>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" spans="4:5">
       <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="3:4">
-      <c r="C144" s="6"/>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" spans="4:5">
       <c r="D144" s="6"/>
-    </row>
-    <row r="145" spans="3:4">
-      <c r="C145" s="6"/>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" spans="4:5">
       <c r="D145" s="6"/>
-    </row>
-    <row r="146" spans="3:4">
-      <c r="C146" s="6"/>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" spans="4:5">
       <c r="D146" s="6"/>
-    </row>
-    <row r="147" spans="3:4">
-      <c r="C147" s="6"/>
+      <c r="E146" s="6"/>
+    </row>
+    <row r="147" spans="4:5">
       <c r="D147" s="6"/>
-    </row>
-    <row r="148" spans="3:4">
-      <c r="C148" s="6"/>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" spans="4:5">
       <c r="D148" s="6"/>
-    </row>
-    <row r="149" spans="3:4">
-      <c r="C149" s="6"/>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" spans="4:5">
       <c r="D149" s="6"/>
-    </row>
-    <row r="150" spans="3:4">
-      <c r="C150" s="6"/>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" spans="4:5">
       <c r="D150" s="6"/>
-    </row>
-    <row r="151" spans="3:4">
-      <c r="C151" s="6"/>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" spans="4:5">
       <c r="D151" s="6"/>
-    </row>
-    <row r="152" spans="3:4">
-      <c r="C152" s="6"/>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" spans="4:5">
       <c r="D152" s="6"/>
-    </row>
-    <row r="153" spans="3:4">
-      <c r="C153" s="6"/>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" spans="4:5">
       <c r="D153" s="6"/>
-    </row>
-    <row r="154" spans="3:4">
-      <c r="C154" s="6"/>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" spans="4:5">
       <c r="D154" s="6"/>
-    </row>
-    <row r="155" spans="3:4">
-      <c r="C155" s="6"/>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" spans="4:5">
       <c r="D155" s="6"/>
-    </row>
-    <row r="156" spans="3:4">
-      <c r="C156" s="6"/>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" spans="4:5">
       <c r="D156" s="6"/>
-    </row>
-    <row r="157" spans="3:4">
-      <c r="C157" s="6"/>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" spans="4:5">
       <c r="D157" s="6"/>
-    </row>
-    <row r="158" spans="3:4">
-      <c r="C158" s="6"/>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" spans="4:5">
       <c r="D158" s="6"/>
-    </row>
-    <row r="159" spans="3:4">
-      <c r="C159" s="6"/>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="4:5">
       <c r="D159" s="6"/>
-    </row>
-    <row r="160" spans="3:4">
-      <c r="C160" s="6"/>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="4:5">
       <c r="D160" s="6"/>
-    </row>
-    <row r="161" spans="3:4">
-      <c r="C161" s="6"/>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="4:5">
       <c r="D161" s="6"/>
-    </row>
-    <row r="162" spans="3:4">
-      <c r="C162" s="6"/>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" spans="4:5">
       <c r="D162" s="6"/>
-    </row>
-    <row r="163" spans="3:4">
-      <c r="C163" s="6"/>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" spans="4:5">
       <c r="D163" s="6"/>
-    </row>
-    <row r="164" spans="3:4">
-      <c r="C164" s="6"/>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" spans="4:5">
       <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="3:4">
-      <c r="C165" s="6"/>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="4:5">
       <c r="D165" s="6"/>
-    </row>
-    <row r="166" spans="3:4">
-      <c r="C166" s="6"/>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="4:5">
       <c r="D166" s="6"/>
-    </row>
-    <row r="167" spans="3:4">
-      <c r="C167" s="6"/>
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" spans="4:5">
       <c r="D167" s="6"/>
-    </row>
-    <row r="168" spans="3:4">
-      <c r="C168" s="6"/>
+      <c r="E167" s="6"/>
+    </row>
+    <row r="168" spans="4:5">
       <c r="D168" s="6"/>
-    </row>
-    <row r="169" spans="3:4">
-      <c r="C169" s="6"/>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="4:5">
       <c r="D169" s="6"/>
-    </row>
-    <row r="170" spans="3:4">
-      <c r="C170" s="6"/>
+      <c r="E169" s="6"/>
+    </row>
+    <row r="170" spans="4:5">
       <c r="D170" s="6"/>
-    </row>
-    <row r="171" spans="3:4">
-      <c r="C171" s="6"/>
+      <c r="E170" s="6"/>
+    </row>
+    <row r="171" spans="4:5">
       <c r="D171" s="6"/>
-    </row>
-    <row r="172" spans="3:4">
-      <c r="C172" s="6"/>
+      <c r="E171" s="6"/>
+    </row>
+    <row r="172" spans="4:5">
       <c r="D172" s="6"/>
-    </row>
-    <row r="173" spans="3:4">
-      <c r="C173" s="6"/>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="4:5">
       <c r="D173" s="6"/>
-    </row>
-    <row r="174" spans="3:4">
-      <c r="C174" s="6"/>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="4:5">
       <c r="D174" s="6"/>
-    </row>
-    <row r="175" spans="3:4">
-      <c r="C175" s="6"/>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="4:5">
       <c r="D175" s="6"/>
-    </row>
-    <row r="176" spans="3:4">
-      <c r="C176" s="6"/>
+      <c r="E175" s="6"/>
+    </row>
+    <row r="176" spans="4:5">
       <c r="D176" s="6"/>
-    </row>
-    <row r="177" spans="3:4">
-      <c r="C177" s="6"/>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" spans="4:5">
       <c r="D177" s="6"/>
-    </row>
-    <row r="178" spans="3:4">
-      <c r="C178" s="6"/>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" spans="4:5">
       <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="3:4">
-      <c r="C179" s="6"/>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" spans="4:5">
       <c r="D179" s="6"/>
-    </row>
-    <row r="180" spans="3:4">
-      <c r="C180" s="6"/>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" spans="4:5">
       <c r="D180" s="6"/>
-    </row>
-    <row r="181" spans="3:4">
-      <c r="C181" s="6"/>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" spans="4:5">
       <c r="D181" s="6"/>
-    </row>
-    <row r="182" spans="3:4">
-      <c r="C182" s="6"/>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" spans="4:5">
       <c r="D182" s="6"/>
-    </row>
-    <row r="183" spans="3:4">
-      <c r="C183" s="6"/>
+      <c r="E182" s="6"/>
+    </row>
+    <row r="183" spans="4:5">
       <c r="D183" s="6"/>
-    </row>
-    <row r="184" spans="3:4">
-      <c r="C184" s="6"/>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" spans="4:5">
       <c r="D184" s="6"/>
-    </row>
-    <row r="185" spans="3:4">
-      <c r="C185" s="6"/>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" spans="4:5">
       <c r="D185" s="6"/>
-    </row>
-    <row r="186" spans="3:4">
-      <c r="C186" s="6"/>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" spans="4:5">
       <c r="D186" s="6"/>
-    </row>
-    <row r="187" spans="3:4">
-      <c r="C187" s="6"/>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" spans="4:5">
       <c r="D187" s="6"/>
-    </row>
-    <row r="188" spans="3:4">
-      <c r="C188" s="6"/>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" spans="4:5">
       <c r="D188" s="6"/>
-    </row>
-    <row r="189" spans="3:4">
-      <c r="C189" s="6"/>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" spans="4:5">
       <c r="D189" s="6"/>
-    </row>
-    <row r="190" spans="3:4">
-      <c r="C190" s="6"/>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" spans="4:5">
       <c r="D190" s="6"/>
-    </row>
-    <row r="191" spans="3:4">
-      <c r="C191" s="6"/>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" spans="4:5">
       <c r="D191" s="6"/>
-    </row>
-    <row r="192" spans="3:4">
-      <c r="C192" s="6"/>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" spans="4:5">
       <c r="D192" s="6"/>
-    </row>
-    <row r="193" spans="3:4">
-      <c r="C193" s="6"/>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" spans="4:5">
       <c r="D193" s="6"/>
-    </row>
-    <row r="194" spans="3:4">
-      <c r="C194" s="6"/>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" spans="4:5">
       <c r="D194" s="6"/>
-    </row>
-    <row r="195" spans="3:4">
-      <c r="C195" s="6"/>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" spans="4:5">
       <c r="D195" s="6"/>
-    </row>
-    <row r="196" spans="3:4">
-      <c r="C196" s="6"/>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" spans="4:5">
       <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="3:4">
-      <c r="C197" s="6"/>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" spans="4:5">
       <c r="D197" s="6"/>
-    </row>
-    <row r="198" spans="3:4">
-      <c r="C198" s="6"/>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" spans="4:5">
       <c r="D198" s="6"/>
-    </row>
-    <row r="199" spans="3:4">
-      <c r="C199" s="6"/>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" spans="4:5">
       <c r="D199" s="6"/>
-    </row>
-    <row r="200" spans="3:4">
-      <c r="C200" s="6"/>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="4:5">
       <c r="D200" s="6"/>
-    </row>
-    <row r="201" spans="3:4">
-      <c r="C201" s="6"/>
+      <c r="E200" s="6"/>
+    </row>
+    <row r="201" spans="4:5">
       <c r="D201" s="6"/>
-    </row>
-    <row r="202" spans="3:4">
-      <c r="C202" s="6"/>
+      <c r="E201" s="6"/>
+    </row>
+    <row r="202" spans="4:5">
       <c r="D202" s="6"/>
-    </row>
-    <row r="203" spans="3:4">
-      <c r="C203" s="6"/>
+      <c r="E202" s="6"/>
+    </row>
+    <row r="203" spans="4:5">
       <c r="D203" s="6"/>
-    </row>
-    <row r="204" spans="3:4">
-      <c r="C204" s="6"/>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" spans="4:5">
       <c r="D204" s="6"/>
-    </row>
-    <row r="205" spans="3:4">
-      <c r="C205" s="6"/>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" spans="4:5">
       <c r="D205" s="6"/>
-    </row>
-    <row r="206" spans="3:4">
-      <c r="C206" s="6"/>
+      <c r="E205" s="6"/>
+    </row>
+    <row r="206" spans="4:5">
       <c r="D206" s="6"/>
-    </row>
-    <row r="207" spans="3:4">
-      <c r="C207" s="6"/>
+      <c r="E206" s="6"/>
+    </row>
+    <row r="207" spans="4:5">
       <c r="D207" s="6"/>
-    </row>
-    <row r="208" spans="3:4">
-      <c r="C208" s="6"/>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" spans="4:5">
       <c r="D208" s="6"/>
-    </row>
-    <row r="209" spans="3:4">
-      <c r="C209" s="6"/>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" spans="4:5">
       <c r="D209" s="6"/>
-    </row>
-    <row r="210" spans="3:4">
-      <c r="C210" s="6"/>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" spans="4:5">
       <c r="D210" s="6"/>
-    </row>
-    <row r="211" spans="3:4">
-      <c r="C211" s="6"/>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" spans="4:5">
       <c r="D211" s="6"/>
-    </row>
-    <row r="212" spans="3:4">
-      <c r="C212" s="6"/>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="212" spans="4:5">
       <c r="D212" s="6"/>
-    </row>
-    <row r="213" spans="3:4">
-      <c r="C213" s="6"/>
+      <c r="E212" s="6"/>
+    </row>
+    <row r="213" spans="4:5">
       <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="3:4">
-      <c r="C214" s="6"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" spans="4:5">
       <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="3:4">
-      <c r="C215" s="6"/>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="215" spans="4:5">
       <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="3:4">
-      <c r="C216" s="6"/>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" spans="4:5">
       <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="3:4">
-      <c r="C217" s="6"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" spans="4:5">
       <c r="D217" s="6"/>
-    </row>
-    <row r="218" spans="3:4">
-      <c r="C218" s="6"/>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" spans="4:5">
       <c r="D218" s="6"/>
-    </row>
-    <row r="219" spans="3:4">
-      <c r="C219" s="6"/>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" spans="4:5">
       <c r="D219" s="6"/>
-    </row>
-    <row r="220" spans="3:4">
-      <c r="C220" s="6"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" spans="4:5">
       <c r="D220" s="6"/>
-    </row>
-    <row r="221" spans="3:4">
-      <c r="C221" s="6"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="221" spans="4:5">
       <c r="D221" s="6"/>
-    </row>
-    <row r="222" spans="3:4">
-      <c r="C222" s="6"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" spans="4:5">
       <c r="D222" s="6"/>
-    </row>
-    <row r="223" spans="3:4">
-      <c r="C223" s="6"/>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" spans="4:5">
       <c r="D223" s="6"/>
-    </row>
-    <row r="224" spans="3:4">
-      <c r="C224" s="6"/>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" spans="4:5">
       <c r="D224" s="6"/>
-    </row>
-    <row r="225" spans="3:4">
-      <c r="C225" s="6"/>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" spans="4:5">
       <c r="D225" s="6"/>
-    </row>
-    <row r="226" spans="3:4">
-      <c r="C226" s="6"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" spans="4:5">
       <c r="D226" s="6"/>
-    </row>
-    <row r="227" spans="3:4">
-      <c r="C227" s="6"/>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" spans="4:5">
       <c r="D227" s="6"/>
-    </row>
-    <row r="228" spans="3:4">
-      <c r="C228" s="6"/>
+      <c r="E227" s="6"/>
+    </row>
+    <row r="228" spans="4:5">
       <c r="D228" s="6"/>
-    </row>
-    <row r="229" spans="3:4">
-      <c r="C229" s="6"/>
+      <c r="E228" s="6"/>
+    </row>
+    <row r="229" spans="4:5">
       <c r="D229" s="6"/>
-    </row>
-    <row r="230" spans="3:4">
-      <c r="C230" s="6"/>
+      <c r="E229" s="6"/>
+    </row>
+    <row r="230" spans="4:5">
       <c r="D230" s="6"/>
-    </row>
-    <row r="231" spans="3:4">
-      <c r="C231" s="6"/>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" spans="4:5">
       <c r="D231" s="6"/>
-    </row>
-    <row r="232" spans="3:4">
-      <c r="C232" s="6"/>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" spans="4:5">
       <c r="D232" s="6"/>
-    </row>
-    <row r="233" spans="3:4">
-      <c r="C233" s="6"/>
+      <c r="E232" s="6"/>
+    </row>
+    <row r="233" spans="4:5">
       <c r="D233" s="6"/>
-    </row>
-    <row r="234" spans="3:4">
-      <c r="C234" s="6"/>
+      <c r="E233" s="6"/>
+    </row>
+    <row r="234" spans="4:5">
       <c r="D234" s="6"/>
-    </row>
-    <row r="235" spans="3:4">
-      <c r="C235" s="6"/>
+      <c r="E234" s="6"/>
+    </row>
+    <row r="235" spans="4:5">
       <c r="D235" s="6"/>
-    </row>
-    <row r="236" spans="3:4">
-      <c r="C236" s="6"/>
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" spans="4:5">
       <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Config/Datas/EquipmentBase.xlsx
+++ b/Luban/Config/Datas/EquipmentBase.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C547DD08-9E20-4E6E-BE40-916596D6928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,18 +20,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -34,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -98,19 +106,29 @@
   </si>
   <si>
     <t>1,100,1;4,100,1;5,200,1</t>
+  </si>
+  <si>
+    <t>Leg</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,1;4,100,1;12,200,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foot</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,100,1;5,100,1;15,200,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +140,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -129,6 +148,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -152,148 +172,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,182 +211,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -510,260 +235,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -773,61 +262,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1085,27 +532,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
-    <col min="2" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="36.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1143,7 +590,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1173,7 +620,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
+    <row r="3" spans="1:26" s="2" customFormat="1" ht="18.45" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1211,7 +658,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1249,7 +696,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" ht="18.45" customHeight="1" spans="1:5">
+    <row r="5" spans="1:26" ht="18.45" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>10001</v>
@@ -1264,7 +711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="18.45" customHeight="1" spans="1:5">
+    <row r="6" spans="1:26" ht="18.45" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>10002</v>
@@ -1279,43 +726,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="4:5">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="4:5">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="4:5">
+    <row r="7" spans="1:26" ht="18.45" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5">
+        <v>20001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="18.45" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
+        <v>30001</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="4:5">
+    <row r="10" spans="1:26">
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="4:5">
+    <row r="11" spans="1:26">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:26">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:26">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:26">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:26">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="1:26">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
@@ -2200,9 +1669,9 @@
       <c r="E236" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/EquipmentBase.xlsx
+++ b/Luban/Config/Datas/EquipmentBase.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C547DD08-9E20-4E6E-BE40-916596D6928B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +14,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,7 +34,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -55,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -109,26 +101,34 @@
   </si>
   <si>
     <t>Leg</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>5,100,1;4,100,1;12,200,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Foot</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>4,100,1;5,100,1;15,200,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helmet</t>
+  </si>
+  <si>
+    <t>Armor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +140,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -148,7 +147,6 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -172,27 +170,148 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,8 +330,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -235,24 +528,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,19 +791,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -532,27 +1103,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="3" width="8.33333333333333" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -590,7 +1161,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,7 +1191,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" ht="18.45" customHeight="1">
+    <row r="3" s="2" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -658,7 +1229,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
+    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -696,7 +1267,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" ht="18.45" customHeight="1">
+    <row r="5" ht="18.45" customHeight="1" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>10001</v>
@@ -711,7 +1282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="18.45" customHeight="1">
+    <row r="6" ht="18.45" customHeight="1" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>10002</v>
@@ -726,7 +1297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18.45" customHeight="1">
+    <row r="7" ht="18.45" customHeight="1" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>20001</v>
@@ -741,7 +1312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18.45" customHeight="1">
+    <row r="8" ht="18.45" customHeight="1" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>30001</v>
@@ -756,35 +1327,57 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:26">
+    <row r="9" ht="18.45" customHeight="1" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5">
+        <v>40001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="18.45" customHeight="1" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5">
+        <v>50001</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="4:5">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="4:5">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="4:5">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="4:5">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="4:5">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
@@ -1669,9 +2262,9 @@
       <c r="E236" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/EquipmentBase.xlsx
+++ b/Luban/Config/Datas/EquipmentBase.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B09CE1-C5FB-427E-9A42-28B2F8207C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -94,41 +100,47 @@
     <t>Sword</t>
   </si>
   <si>
-    <t>0,200,0;2,300,0</t>
-  </si>
-  <si>
-    <t>1,100,1;4,100,1;5,200,1</t>
-  </si>
-  <si>
     <t>Leg</t>
   </si>
   <si>
-    <t>5,100,1;4,100,1;12,200,1</t>
-  </si>
-  <si>
     <t>Foot</t>
   </si>
   <si>
-    <t>4,100,1;5,100,1;15,200,1</t>
-  </si>
-  <si>
     <t>Helmet</t>
   </si>
   <si>
     <t>Armor</t>
+  </si>
+  <si>
+    <t>0,200,0;2,300,1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,100,1;4,100,0;5,200,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,1;4,100,0;12,200,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,100,0;5,100,0;15,200,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,100,1;5,100,0;14,200,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,100,0;5,100,1;15,200,0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,136 +182,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -310,8 +192,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,182 +219,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -528,260 +243,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -791,61 +270,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1103,27 +540,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
-    <col min="2" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="36.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +598,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +628,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
+    <row r="3" spans="1:26" s="2" customFormat="1" ht="18.45" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1229,7 +666,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:26">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +704,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" ht="18.45" customHeight="1" spans="1:5">
+    <row r="5" spans="1:26" ht="18.45" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>10001</v>
@@ -1279,10 +716,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="18.45" customHeight="1" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="18.45" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>10002</v>
@@ -1294,10 +731,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="18.45" customHeight="1" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="18.45" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>20001</v>
@@ -1306,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="18.45" customHeight="1" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="18.45" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>30001</v>
@@ -1321,13 +758,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="18.45" customHeight="1" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="18.45" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>40001</v>
@@ -1336,13 +773,13 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" ht="18.45" customHeight="1" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="18.45" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>50001</v>
@@ -1351,33 +788,33 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="4:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:26">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:26">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="4:5">
+    <row r="14" spans="1:26">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="4:5">
+    <row r="15" spans="1:26">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="4:5">
+    <row r="16" spans="1:26">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
     </row>
@@ -2262,9 +1699,9 @@
       <c r="E236" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/EquipmentBase.xlsx
+++ b/Luban/Config/Datas/EquipmentBase.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\TEngine-main\Luban\Config\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B09CE1-C5FB-427E-9A42-28B2F8207C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -67,6 +61,9 @@
     <t>equipType</t>
   </si>
   <si>
+    <t>BaseAttriBute</t>
+  </si>
+  <si>
     <t>Attribute</t>
   </si>
   <si>
@@ -79,7 +76,10 @@
     <t>equipment.EquipmentFlag</t>
   </si>
   <si>
-    <t>(list#sep=;),equipmentBase.Attribute</t>
+    <t>Tb.EquipmentBase.BaseArrayEquipBute</t>
+  </si>
+  <si>
+    <t>Tb.EquipmentBase.ArrayEquipBute</t>
   </si>
   <si>
     <t>##</t>
@@ -94,53 +94,71 @@
     <t>装备类型</t>
   </si>
   <si>
+    <t>装备基础属性</t>
+  </si>
+  <si>
     <t>装备属性</t>
   </si>
   <si>
     <t>Sword</t>
   </si>
   <si>
+    <t>20,1,100;13,100,0</t>
+  </si>
+  <si>
+    <t>0,200,0;2,300,1</t>
+  </si>
+  <si>
+    <t>20,10,200;13,101,0</t>
+  </si>
+  <si>
+    <t>1,100,1;4,100,0;5,200,0</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>12,100,0</t>
+  </si>
+  <si>
+    <t>5,100,1;4,100,0;12,200,0</t>
+  </si>
+  <si>
     <t>Foot</t>
   </si>
   <si>
+    <t>4,100,0;5,100,0;15,200,0</t>
+  </si>
+  <si>
     <t>Helmet</t>
   </si>
   <si>
+    <t>12,10,0</t>
+  </si>
+  <si>
+    <t>4,100,0;5,100,1;15,200,0</t>
+  </si>
+  <si>
     <t>Armor</t>
   </si>
   <si>
-    <t>0,200,0;2,300,1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,100,1;4,100,0;5,200,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,100,1;4,100,0;12,200,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,100,0;5,100,0;15,200,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>12,5,0</t>
   </si>
   <si>
     <t>4,100,1;5,100,0;14,200,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,100,0;5,100,1;15,200,0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +200,136 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -192,15 +340,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,8 +360,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,24 +558,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -270,19 +821,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -540,27 +1133,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z236"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.55833333333333" customWidth="1"/>
+    <col min="2" max="3" width="8.33333333333333" customWidth="1"/>
+    <col min="4" max="5" width="23" customWidth="1"/>
+    <col min="6" max="6" width="36.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -576,7 +1169,9 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -597,8 +1192,9 @@
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
+      <c r="AA1"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,7 +1202,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2"/>
+      <c r="F2" s="3"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -627,24 +1223,27 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" ht="18.45" customHeight="1">
+      <c r="AA2"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="18.45" customHeight="1" spans="1:27">
       <c r="A3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3"/>
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -665,24 +1264,27 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="18.45" customHeight="1">
+      <c r="AA3"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="18.45" customHeight="1" spans="1:27">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4"/>
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -703,8 +1305,9 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:26" ht="18.45" customHeight="1">
+      <c r="AA4"/>
+    </row>
+    <row r="5" ht="18.45" customHeight="1" spans="1:6">
       <c r="A5" s="5"/>
       <c r="B5" s="5">
         <v>10001</v>
@@ -713,13 +1316,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="18.45" customHeight="1">
+    <row r="6" ht="18.45" customHeight="1" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="5">
         <v>10002</v>
@@ -728,13 +1334,16 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="18.45" customHeight="1">
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="18.45" customHeight="1" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="5">
         <v>20001</v>
@@ -743,13 +1352,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="18.45" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="18.45" customHeight="1" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5">
         <v>30001</v>
@@ -758,13 +1370,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="18.45" customHeight="1">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="18.45" customHeight="1" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="5">
         <v>40001</v>
@@ -773,13 +1388,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="18.45" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="18.45" customHeight="1" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5">
         <v>50001</v>
@@ -788,920 +1406,1149 @@
         <v>4</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6">
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="4:6">
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="4:6">
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="4:6">
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="4:6">
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="4:6">
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="4:5">
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="4:6">
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="4:5">
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="4:6">
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="4:5">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="4:6">
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="4:5">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="4:6">
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="4:5">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="4:6">
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="4:5">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="4:6">
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="4:5">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="4:6">
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="4:5">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="4:6">
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="4:5">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="4:6">
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="4:5">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="4:6">
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-    </row>
-    <row r="27" spans="4:5">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="4:6">
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="4:5">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="4:6">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="4:5">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="4:6">
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-    </row>
-    <row r="30" spans="4:5">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="4:6">
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="4:5">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="4:6">
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="4:5">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="4:6">
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="4:5">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="4:6">
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="4:5">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="4:6">
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="4:5">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="4:6">
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="4:5">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="4:6">
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="4:5">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="4:6">
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="4:5">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="4:6">
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="4:5">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="4:6">
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="4:5">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="4:6">
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
-    </row>
-    <row r="41" spans="4:5">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="4:6">
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="4:5">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="4:6">
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
-    </row>
-    <row r="43" spans="4:5">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="4:6">
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="4:5">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="4:6">
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-    </row>
-    <row r="45" spans="4:5">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="4:6">
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-    </row>
-    <row r="46" spans="4:5">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="4:6">
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-    </row>
-    <row r="47" spans="4:5">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="4:6">
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="4:5">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="4:6">
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-    </row>
-    <row r="49" spans="4:5">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="4:6">
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="4:5">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="4:6">
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="4:5">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="4:6">
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="4:5">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="4:6">
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
-    </row>
-    <row r="53" spans="4:5">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="4:6">
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-    </row>
-    <row r="54" spans="4:5">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="4:6">
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
-    </row>
-    <row r="55" spans="4:5">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="4:6">
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="4:5">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="4:6">
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-    </row>
-    <row r="57" spans="4:5">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="4:6">
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-    </row>
-    <row r="58" spans="4:5">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="4:6">
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-    </row>
-    <row r="59" spans="4:5">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="4:6">
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-    </row>
-    <row r="60" spans="4:5">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="4:6">
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="4:5">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="4:6">
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="4:5">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="4:6">
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
-    </row>
-    <row r="63" spans="4:5">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="4:6">
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
-    </row>
-    <row r="64" spans="4:5">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="4:6">
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
-    </row>
-    <row r="65" spans="4:5">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="4:6">
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
-    </row>
-    <row r="66" spans="4:5">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="4:6">
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="4:5">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="4:6">
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
-    </row>
-    <row r="68" spans="4:5">
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="4:6">
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
-    </row>
-    <row r="69" spans="4:5">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="4:6">
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="4:5">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="4:6">
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="4:5">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="4:6">
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="4:5">
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="4:6">
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="4:5">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="4:6">
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="4:5">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="4:6">
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-    </row>
-    <row r="75" spans="4:5">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="4:6">
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
-    </row>
-    <row r="76" spans="4:5">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="4:6">
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
-    </row>
-    <row r="77" spans="4:5">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="4:6">
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
-    </row>
-    <row r="78" spans="4:5">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="4:6">
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
-    </row>
-    <row r="79" spans="4:5">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="4:6">
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
-    </row>
-    <row r="80" spans="4:5">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="4:6">
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
-    </row>
-    <row r="81" spans="4:5">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="4:6">
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
-    </row>
-    <row r="82" spans="4:5">
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="4:6">
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
-    </row>
-    <row r="83" spans="4:5">
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="4:6">
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
-    </row>
-    <row r="84" spans="4:5">
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="4:6">
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
-    </row>
-    <row r="85" spans="4:5">
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="4:6">
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
-    </row>
-    <row r="86" spans="4:5">
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="4:6">
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
-    </row>
-    <row r="87" spans="4:5">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="4:6">
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
-    </row>
-    <row r="88" spans="4:5">
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="4:6">
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
-    </row>
-    <row r="89" spans="4:5">
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="4:6">
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
-    </row>
-    <row r="90" spans="4:5">
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="4:6">
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
-    </row>
-    <row r="91" spans="4:5">
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="4:6">
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="4:5">
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="4:6">
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
-    </row>
-    <row r="93" spans="4:5">
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="4:6">
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
-    </row>
-    <row r="94" spans="4:5">
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="4:6">
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
-    </row>
-    <row r="95" spans="4:5">
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="4:6">
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="4:5">
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="4:6">
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
-    </row>
-    <row r="97" spans="4:5">
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="4:6">
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
-    </row>
-    <row r="98" spans="4:5">
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="4:6">
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
-    </row>
-    <row r="99" spans="4:5">
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="4:6">
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
-    </row>
-    <row r="100" spans="4:5">
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="4:6">
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
-    </row>
-    <row r="101" spans="4:5">
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="4:6">
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
-    </row>
-    <row r="102" spans="4:5">
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="4:6">
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
-    </row>
-    <row r="103" spans="4:5">
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="4:6">
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
-    </row>
-    <row r="104" spans="4:5">
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="4:6">
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
-    </row>
-    <row r="105" spans="4:5">
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="4:6">
       <c r="D105" s="6"/>
       <c r="E105" s="6"/>
-    </row>
-    <row r="106" spans="4:5">
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="4:6">
       <c r="D106" s="6"/>
       <c r="E106" s="6"/>
-    </row>
-    <row r="107" spans="4:5">
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="4:6">
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
-    </row>
-    <row r="108" spans="4:5">
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="4:6">
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
-    </row>
-    <row r="109" spans="4:5">
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="4:6">
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
-    </row>
-    <row r="110" spans="4:5">
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="4:6">
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
-    </row>
-    <row r="111" spans="4:5">
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="4:6">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
-    </row>
-    <row r="112" spans="4:5">
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="4:6">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
-    </row>
-    <row r="113" spans="4:5">
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="4:6">
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
-    </row>
-    <row r="114" spans="4:5">
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="4:6">
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
-    </row>
-    <row r="115" spans="4:5">
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="4:6">
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
-    </row>
-    <row r="116" spans="4:5">
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="4:6">
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
-    </row>
-    <row r="117" spans="4:5">
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="4:6">
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
-    </row>
-    <row r="118" spans="4:5">
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="4:6">
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
-    </row>
-    <row r="119" spans="4:5">
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="4:6">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="4:5">
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="4:6">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
-    </row>
-    <row r="121" spans="4:5">
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="4:6">
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
-    </row>
-    <row r="122" spans="4:5">
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="4:6">
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
-    </row>
-    <row r="123" spans="4:5">
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="4:6">
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
-    </row>
-    <row r="124" spans="4:5">
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="4:6">
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
-    </row>
-    <row r="125" spans="4:5">
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="4:6">
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
-    </row>
-    <row r="126" spans="4:5">
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="4:6">
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
-    </row>
-    <row r="127" spans="4:5">
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="4:6">
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
-    </row>
-    <row r="128" spans="4:5">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="4:6">
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
-    </row>
-    <row r="129" spans="4:5">
+      <c r="F128" s="6"/>
+    </row>
+    <row r="129" spans="4:6">
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
-    </row>
-    <row r="130" spans="4:5">
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="4:6">
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
-    </row>
-    <row r="131" spans="4:5">
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="4:6">
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
-    </row>
-    <row r="132" spans="4:5">
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="4:6">
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
-    </row>
-    <row r="133" spans="4:5">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="4:6">
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
-    </row>
-    <row r="134" spans="4:5">
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="4:6">
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
-    </row>
-    <row r="135" spans="4:5">
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="4:6">
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
-    </row>
-    <row r="136" spans="4:5">
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="4:6">
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
-    </row>
-    <row r="137" spans="4:5">
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="4:6">
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
-    </row>
-    <row r="138" spans="4:5">
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="4:6">
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
-    </row>
-    <row r="139" spans="4:5">
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="4:6">
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
-    </row>
-    <row r="140" spans="4:5">
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="4:6">
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
-    </row>
-    <row r="141" spans="4:5">
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" spans="4:6">
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
-    </row>
-    <row r="142" spans="4:5">
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" spans="4:6">
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
-    </row>
-    <row r="143" spans="4:5">
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="4:6">
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
-    </row>
-    <row r="144" spans="4:5">
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="4:6">
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
-    </row>
-    <row r="145" spans="4:5">
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="4:6">
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
-    </row>
-    <row r="146" spans="4:5">
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="4:6">
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
-    </row>
-    <row r="147" spans="4:5">
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="4:6">
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
-    </row>
-    <row r="148" spans="4:5">
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="4:6">
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
-    </row>
-    <row r="149" spans="4:5">
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="4:6">
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
-    </row>
-    <row r="150" spans="4:5">
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" spans="4:6">
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
-    </row>
-    <row r="151" spans="4:5">
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="4:6">
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
-    </row>
-    <row r="152" spans="4:5">
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="4:6">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
-    </row>
-    <row r="153" spans="4:5">
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="4:6">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
-    </row>
-    <row r="154" spans="4:5">
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="4:6">
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
-    </row>
-    <row r="155" spans="4:5">
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="4:6">
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
-    </row>
-    <row r="156" spans="4:5">
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156" spans="4:6">
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
-    </row>
-    <row r="157" spans="4:5">
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157" spans="4:6">
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
-    </row>
-    <row r="158" spans="4:5">
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="4:6">
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
-    </row>
-    <row r="159" spans="4:5">
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="4:6">
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
-    </row>
-    <row r="160" spans="4:5">
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="4:6">
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
-    </row>
-    <row r="161" spans="4:5">
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161" spans="4:6">
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
-    </row>
-    <row r="162" spans="4:5">
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" spans="4:6">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
-    </row>
-    <row r="163" spans="4:5">
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="4:6">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
-    </row>
-    <row r="164" spans="4:5">
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" spans="4:6">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
-    </row>
-    <row r="165" spans="4:5">
+      <c r="F164" s="6"/>
+    </row>
+    <row r="165" spans="4:6">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
-    </row>
-    <row r="166" spans="4:5">
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="4:6">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
-    </row>
-    <row r="167" spans="4:5">
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167" spans="4:6">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
-    </row>
-    <row r="168" spans="4:5">
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" spans="4:6">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
-    </row>
-    <row r="169" spans="4:5">
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" spans="4:6">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
-    </row>
-    <row r="170" spans="4:5">
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" spans="4:6">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
-    </row>
-    <row r="171" spans="4:5">
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171" spans="4:6">
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
-    </row>
-    <row r="172" spans="4:5">
+      <c r="F171" s="6"/>
+    </row>
+    <row r="172" spans="4:6">
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
-    </row>
-    <row r="173" spans="4:5">
+      <c r="F172" s="6"/>
+    </row>
+    <row r="173" spans="4:6">
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
-    </row>
-    <row r="174" spans="4:5">
+      <c r="F173" s="6"/>
+    </row>
+    <row r="174" spans="4:6">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
-    </row>
-    <row r="175" spans="4:5">
+      <c r="F174" s="6"/>
+    </row>
+    <row r="175" spans="4:6">
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
-    </row>
-    <row r="176" spans="4:5">
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" spans="4:6">
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
-    </row>
-    <row r="177" spans="4:5">
+      <c r="F176" s="6"/>
+    </row>
+    <row r="177" spans="4:6">
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
-    </row>
-    <row r="178" spans="4:5">
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="4:6">
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
-    </row>
-    <row r="179" spans="4:5">
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="4:6">
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
-    </row>
-    <row r="180" spans="4:5">
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="4:6">
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
-    </row>
-    <row r="181" spans="4:5">
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181" spans="4:6">
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
-    </row>
-    <row r="182" spans="4:5">
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" spans="4:6">
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
-    </row>
-    <row r="183" spans="4:5">
+      <c r="F182" s="6"/>
+    </row>
+    <row r="183" spans="4:6">
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
-    </row>
-    <row r="184" spans="4:5">
+      <c r="F183" s="6"/>
+    </row>
+    <row r="184" spans="4:6">
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
-    </row>
-    <row r="185" spans="4:5">
+      <c r="F184" s="6"/>
+    </row>
+    <row r="185" spans="4:6">
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
-    </row>
-    <row r="186" spans="4:5">
+      <c r="F185" s="6"/>
+    </row>
+    <row r="186" spans="4:6">
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
-    </row>
-    <row r="187" spans="4:5">
+      <c r="F186" s="6"/>
+    </row>
+    <row r="187" spans="4:6">
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
-    </row>
-    <row r="188" spans="4:5">
+      <c r="F187" s="6"/>
+    </row>
+    <row r="188" spans="4:6">
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
-    </row>
-    <row r="189" spans="4:5">
+      <c r="F188" s="6"/>
+    </row>
+    <row r="189" spans="4:6">
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
-    </row>
-    <row r="190" spans="4:5">
+      <c r="F189" s="6"/>
+    </row>
+    <row r="190" spans="4:6">
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
-    </row>
-    <row r="191" spans="4:5">
+      <c r="F190" s="6"/>
+    </row>
+    <row r="191" spans="4:6">
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
-    </row>
-    <row r="192" spans="4:5">
+      <c r="F191" s="6"/>
+    </row>
+    <row r="192" spans="4:6">
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
-    </row>
-    <row r="193" spans="4:5">
+      <c r="F192" s="6"/>
+    </row>
+    <row r="193" spans="4:6">
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
-    </row>
-    <row r="194" spans="4:5">
+      <c r="F193" s="6"/>
+    </row>
+    <row r="194" spans="4:6">
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
-    </row>
-    <row r="195" spans="4:5">
+      <c r="F194" s="6"/>
+    </row>
+    <row r="195" spans="4:6">
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
-    </row>
-    <row r="196" spans="4:5">
+      <c r="F195" s="6"/>
+    </row>
+    <row r="196" spans="4:6">
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
-    </row>
-    <row r="197" spans="4:5">
+      <c r="F196" s="6"/>
+    </row>
+    <row r="197" spans="4:6">
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
-    </row>
-    <row r="198" spans="4:5">
+      <c r="F197" s="6"/>
+    </row>
+    <row r="198" spans="4:6">
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
-    </row>
-    <row r="199" spans="4:5">
+      <c r="F198" s="6"/>
+    </row>
+    <row r="199" spans="4:6">
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
-    </row>
-    <row r="200" spans="4:5">
+      <c r="F199" s="6"/>
+    </row>
+    <row r="200" spans="4:6">
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
-    </row>
-    <row r="201" spans="4:5">
+      <c r="F200" s="6"/>
+    </row>
+    <row r="201" spans="4:6">
       <c r="D201" s="6"/>
       <c r="E201" s="6"/>
-    </row>
-    <row r="202" spans="4:5">
+      <c r="F201" s="6"/>
+    </row>
+    <row r="202" spans="4:6">
       <c r="D202" s="6"/>
       <c r="E202" s="6"/>
-    </row>
-    <row r="203" spans="4:5">
+      <c r="F202" s="6"/>
+    </row>
+    <row r="203" spans="4:6">
       <c r="D203" s="6"/>
       <c r="E203" s="6"/>
-    </row>
-    <row r="204" spans="4:5">
+      <c r="F203" s="6"/>
+    </row>
+    <row r="204" spans="4:6">
       <c r="D204" s="6"/>
       <c r="E204" s="6"/>
-    </row>
-    <row r="205" spans="4:5">
+      <c r="F204" s="6"/>
+    </row>
+    <row r="205" spans="4:6">
       <c r="D205" s="6"/>
       <c r="E205" s="6"/>
-    </row>
-    <row r="206" spans="4:5">
+      <c r="F205" s="6"/>
+    </row>
+    <row r="206" spans="4:6">
       <c r="D206" s="6"/>
       <c r="E206" s="6"/>
-    </row>
-    <row r="207" spans="4:5">
+      <c r="F206" s="6"/>
+    </row>
+    <row r="207" spans="4:6">
       <c r="D207" s="6"/>
       <c r="E207" s="6"/>
-    </row>
-    <row r="208" spans="4:5">
+      <c r="F207" s="6"/>
+    </row>
+    <row r="208" spans="4:6">
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
-    </row>
-    <row r="209" spans="4:5">
+      <c r="F208" s="6"/>
+    </row>
+    <row r="209" spans="4:6">
       <c r="D209" s="6"/>
       <c r="E209" s="6"/>
-    </row>
-    <row r="210" spans="4:5">
+      <c r="F209" s="6"/>
+    </row>
+    <row r="210" spans="4:6">
       <c r="D210" s="6"/>
       <c r="E210" s="6"/>
-    </row>
-    <row r="211" spans="4:5">
+      <c r="F210" s="6"/>
+    </row>
+    <row r="211" spans="4:6">
       <c r="D211" s="6"/>
       <c r="E211" s="6"/>
-    </row>
-    <row r="212" spans="4:5">
+      <c r="F211" s="6"/>
+    </row>
+    <row r="212" spans="4:6">
       <c r="D212" s="6"/>
       <c r="E212" s="6"/>
-    </row>
-    <row r="213" spans="4:5">
+      <c r="F212" s="6"/>
+    </row>
+    <row r="213" spans="4:6">
       <c r="D213" s="6"/>
       <c r="E213" s="6"/>
-    </row>
-    <row r="214" spans="4:5">
+      <c r="F213" s="6"/>
+    </row>
+    <row r="214" spans="4:6">
       <c r="D214" s="6"/>
       <c r="E214" s="6"/>
-    </row>
-    <row r="215" spans="4:5">
+      <c r="F214" s="6"/>
+    </row>
+    <row r="215" spans="4:6">
       <c r="D215" s="6"/>
       <c r="E215" s="6"/>
-    </row>
-    <row r="216" spans="4:5">
+      <c r="F215" s="6"/>
+    </row>
+    <row r="216" spans="4:6">
       <c r="D216" s="6"/>
       <c r="E216" s="6"/>
-    </row>
-    <row r="217" spans="4:5">
+      <c r="F216" s="6"/>
+    </row>
+    <row r="217" spans="4:6">
       <c r="D217" s="6"/>
       <c r="E217" s="6"/>
-    </row>
-    <row r="218" spans="4:5">
+      <c r="F217" s="6"/>
+    </row>
+    <row r="218" spans="4:6">
       <c r="D218" s="6"/>
       <c r="E218" s="6"/>
-    </row>
-    <row r="219" spans="4:5">
+      <c r="F218" s="6"/>
+    </row>
+    <row r="219" spans="4:6">
       <c r="D219" s="6"/>
       <c r="E219" s="6"/>
-    </row>
-    <row r="220" spans="4:5">
+      <c r="F219" s="6"/>
+    </row>
+    <row r="220" spans="4:6">
       <c r="D220" s="6"/>
       <c r="E220" s="6"/>
-    </row>
-    <row r="221" spans="4:5">
+      <c r="F220" s="6"/>
+    </row>
+    <row r="221" spans="4:6">
       <c r="D221" s="6"/>
       <c r="E221" s="6"/>
-    </row>
-    <row r="222" spans="4:5">
+      <c r="F221" s="6"/>
+    </row>
+    <row r="222" spans="4:6">
       <c r="D222" s="6"/>
       <c r="E222" s="6"/>
-    </row>
-    <row r="223" spans="4:5">
+      <c r="F222" s="6"/>
+    </row>
+    <row r="223" spans="4:6">
       <c r="D223" s="6"/>
       <c r="E223" s="6"/>
-    </row>
-    <row r="224" spans="4:5">
+      <c r="F223" s="6"/>
+    </row>
+    <row r="224" spans="4:6">
       <c r="D224" s="6"/>
       <c r="E224" s="6"/>
-    </row>
-    <row r="225" spans="4:5">
+      <c r="F224" s="6"/>
+    </row>
+    <row r="225" spans="4:6">
       <c r="D225" s="6"/>
       <c r="E225" s="6"/>
-    </row>
-    <row r="226" spans="4:5">
+      <c r="F225" s="6"/>
+    </row>
+    <row r="226" spans="4:6">
       <c r="D226" s="6"/>
       <c r="E226" s="6"/>
-    </row>
-    <row r="227" spans="4:5">
+      <c r="F226" s="6"/>
+    </row>
+    <row r="227" spans="4:6">
       <c r="D227" s="6"/>
       <c r="E227" s="6"/>
-    </row>
-    <row r="228" spans="4:5">
+      <c r="F227" s="6"/>
+    </row>
+    <row r="228" spans="4:6">
       <c r="D228" s="6"/>
       <c r="E228" s="6"/>
-    </row>
-    <row r="229" spans="4:5">
+      <c r="F228" s="6"/>
+    </row>
+    <row r="229" spans="4:6">
       <c r="D229" s="6"/>
       <c r="E229" s="6"/>
-    </row>
-    <row r="230" spans="4:5">
+      <c r="F229" s="6"/>
+    </row>
+    <row r="230" spans="4:6">
       <c r="D230" s="6"/>
       <c r="E230" s="6"/>
-    </row>
-    <row r="231" spans="4:5">
+      <c r="F230" s="6"/>
+    </row>
+    <row r="231" spans="4:6">
       <c r="D231" s="6"/>
       <c r="E231" s="6"/>
-    </row>
-    <row r="232" spans="4:5">
+      <c r="F231" s="6"/>
+    </row>
+    <row r="232" spans="4:6">
       <c r="D232" s="6"/>
       <c r="E232" s="6"/>
-    </row>
-    <row r="233" spans="4:5">
+      <c r="F232" s="6"/>
+    </row>
+    <row r="233" spans="4:6">
       <c r="D233" s="6"/>
       <c r="E233" s="6"/>
-    </row>
-    <row r="234" spans="4:5">
+      <c r="F233" s="6"/>
+    </row>
+    <row r="234" spans="4:6">
       <c r="D234" s="6"/>
       <c r="E234" s="6"/>
-    </row>
-    <row r="235" spans="4:5">
+      <c r="F234" s="6"/>
+    </row>
+    <row r="235" spans="4:6">
       <c r="D235" s="6"/>
       <c r="E235" s="6"/>
-    </row>
-    <row r="236" spans="4:5">
+      <c r="F235" s="6"/>
+    </row>
+    <row r="236" spans="4:6">
       <c r="D236" s="6"/>
       <c r="E236" s="6"/>
+      <c r="F236" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>